--- a/Week_08/simple_linear_regression.xlsx
+++ b/Week_08/simple_linear_regression.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\Lektionen\DA_HS2022\KK\Week_08\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\Lektionen\DA_HS2023\data_analytics\Week_08\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2493FD1B-7E21-4AFE-B424-52E507401FAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5321063-7EE5-4440-A4BA-AE7B1A6AC55F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{467AFB14-9292-40BF-89F0-0A20ACE56EF3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{467AFB14-9292-40BF-89F0-0A20ACE56EF3}"/>
   </bookViews>
   <sheets>
     <sheet name="Example" sheetId="2" r:id="rId1"/>
@@ -3193,21 +3193,21 @@
       <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="35.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="16.85546875" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="11.42578125" style="1"/>
+    <col min="2" max="2" width="12.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="35.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="16.88671875" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>34</v>
       </c>
@@ -3215,7 +3215,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B3" s="5" t="s">
         <v>6</v>
       </c>
@@ -3230,7 +3230,7 @@
       <c r="G3" s="23"/>
       <c r="J3" s="26"/>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
         <v>1550</v>
       </c>
@@ -3244,7 +3244,7 @@
       <c r="F4" s="37"/>
       <c r="G4" s="37"/>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
         <v>3800</v>
       </c>
@@ -3256,7 +3256,7 @@
       <c r="F5" s="37"/>
       <c r="G5" s="37"/>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
         <v>2450</v>
       </c>
@@ -3268,7 +3268,7 @@
       <c r="F6" s="37"/>
       <c r="G6" s="37"/>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
         <v>2700</v>
       </c>
@@ -3281,7 +3281,7 @@
       <c r="G7" s="37"/>
       <c r="J7" s="27"/>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
         <v>3200</v>
       </c>
@@ -3293,7 +3293,7 @@
       <c r="F8" s="37"/>
       <c r="G8" s="37"/>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B9" s="3">
         <v>3800</v>
       </c>
@@ -3305,14 +3305,14 @@
       <c r="F9" s="37"/>
       <c r="G9" s="37"/>
     </row>
-    <row r="10" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="34"/>
       <c r="G10" s="35"/>
       <c r="J10" s="26"/>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B11" s="22"/>
       <c r="C11" s="22"/>
       <c r="D11" s="21"/>
@@ -3320,7 +3320,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B12" s="22"/>
       <c r="C12" s="22"/>
       <c r="D12" s="21"/>
@@ -3329,7 +3329,7 @@
       <c r="G12" s="8"/>
       <c r="J12"/>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B13" s="22"/>
       <c r="C13" s="22"/>
       <c r="D13" s="21"/>
@@ -3340,7 +3340,7 @@
       <c r="I13" s="32"/>
       <c r="J13" s="27"/>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
@@ -3351,7 +3351,7 @@
       <c r="I14" s="11"/>
       <c r="J14"/>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
@@ -3361,7 +3361,7 @@
       <c r="H15" s="32"/>
       <c r="I15" s="11"/>
     </row>
-    <row r="16" spans="2:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:10" ht="15" x14ac:dyDescent="0.25">
       <c r="B16" s="8"/>
       <c r="C16" s="24"/>
       <c r="D16" s="8"/>
@@ -3371,7 +3371,7 @@
       <c r="H16" s="33"/>
       <c r="J16" s="28"/>
     </row>
-    <row r="17" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
@@ -3382,7 +3382,7 @@
       <c r="I17" s="11"/>
       <c r="J17" s="28"/>
     </row>
-    <row r="18" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
@@ -3393,18 +3393,18 @@
       <c r="I18" s="11"/>
       <c r="J18" s="31"/>
     </row>
-    <row r="19" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
       <c r="J19" s="28"/>
       <c r="M19" s="31"/>
     </row>
-    <row r="20" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
       <c r="J20" s="28"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
       <c r="D21" s="8"/>
@@ -3412,7 +3412,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
     </row>
-    <row r="22" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="8"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
@@ -3422,7 +3422,7 @@
       <c r="G22" s="8"/>
       <c r="J22" s="26"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -3431,7 +3431,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
     </row>
-    <row r="24" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="8"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
@@ -3443,7 +3443,7 @@
       <c r="K24" s="30"/>
       <c r="L24" s="30"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="8"/>
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
@@ -3452,7 +3452,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
@@ -3461,7 +3461,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
     </row>
-    <row r="27" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="8"/>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
@@ -3471,7 +3471,7 @@
       <c r="G27" s="8"/>
       <c r="J27" s="26"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="8"/>
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
@@ -3480,7 +3480,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
     </row>
-    <row r="29" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="8"/>
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
@@ -3492,7 +3492,7 @@
       <c r="K29" s="30"/>
       <c r="L29" s="30"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="8"/>
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
@@ -3501,7 +3501,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B31" s="9"/>
       <c r="C31" s="9"/>
       <c r="D31" s="9"/>
@@ -3509,7 +3509,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
@@ -3517,7 +3517,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
@@ -3525,7 +3525,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
@@ -3533,7 +3533,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
       <c r="D35" s="8"/>
@@ -3541,7 +3541,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36" s="9"/>
       <c r="C36" s="9"/>
       <c r="D36" s="9"/>
@@ -3549,7 +3549,7 @@
       <c r="F36" s="9"/>
       <c r="G36" s="9"/>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
@@ -3557,7 +3557,7 @@
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
@@ -3565,7 +3565,7 @@
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
       <c r="D39" s="8"/>
@@ -3573,7 +3573,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
       <c r="D40" s="8"/>
@@ -3593,34 +3593,34 @@
   <dimension ref="A2:T40"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S27" sqref="S27"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="7.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="7.6640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="17" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.28515625" style="1" customWidth="1"/>
-    <col min="5" max="6" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.5703125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="29.5703125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="18.85546875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="3.28515625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="11.42578125" style="1"/>
-    <col min="12" max="12" width="12.28515625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="11.42578125" style="1"/>
-    <col min="14" max="14" width="8.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" style="1" customWidth="1"/>
+    <col min="5" max="6" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.5546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="29.5546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="18.88671875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="3.33203125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="11.44140625" style="1"/>
+    <col min="12" max="12" width="12.33203125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="11.44140625" style="1"/>
+    <col min="14" max="14" width="8.33203125" style="1" customWidth="1"/>
     <col min="15" max="15" width="46" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.28515625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="39.42578125" style="1" customWidth="1"/>
-    <col min="18" max="18" width="17.42578125" style="1" customWidth="1"/>
-    <col min="19" max="19" width="17.85546875" style="1" customWidth="1"/>
-    <col min="20" max="20" width="13.5703125" style="1" customWidth="1"/>
-    <col min="21" max="16384" width="11.42578125" style="1"/>
+    <col min="16" max="16" width="14.33203125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="39.44140625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="17.44140625" style="1" customWidth="1"/>
+    <col min="19" max="19" width="17.88671875" style="1" customWidth="1"/>
+    <col min="20" max="20" width="13.5546875" style="1" customWidth="1"/>
+    <col min="21" max="16384" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B2" s="2"/>
       <c r="C2" s="2" t="s">
         <v>37</v>
@@ -3629,7 +3629,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:20" ht="16.2" x14ac:dyDescent="0.3">
       <c r="B3" s="4"/>
       <c r="C3" s="5" t="s">
         <v>6</v>
@@ -3656,7 +3656,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C4" s="1">
         <v>1550</v>
       </c>
@@ -3696,7 +3696,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C5" s="1">
         <v>3800</v>
       </c>
@@ -3724,7 +3724,7 @@
         <v>1550</v>
       </c>
       <c r="Q5" s="12">
-        <f>($G$17*D4)+$G$18</f>
+        <f t="shared" ref="Q5:Q10" si="3">($G$17*D4)+$G$18</f>
         <v>1554.5801526717555</v>
       </c>
       <c r="R5" s="12">
@@ -3740,7 +3740,7 @@
         <v>20.97779849658917</v>
       </c>
     </row>
-    <row r="6" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C6" s="1">
         <v>2450</v>
       </c>
@@ -3756,7 +3756,7 @@
         <v>-19.166666666666671</v>
       </c>
       <c r="G6" s="12">
-        <f t="shared" ref="G6:G9" si="3">F6^2</f>
+        <f t="shared" ref="G6:G9" si="4">F6^2</f>
         <v>367.36111111111131</v>
       </c>
       <c r="H6" s="12">
@@ -3768,7 +3768,7 @@
         <v>3800</v>
       </c>
       <c r="Q6" s="12">
-        <f>($G$17*D5)+$G$18</f>
+        <f t="shared" si="3"/>
         <v>3867.5572519083967</v>
       </c>
       <c r="R6" s="12">
@@ -3776,15 +3776,15 @@
         <v>780277.7777777781</v>
       </c>
       <c r="S6" s="12">
-        <f t="shared" ref="S6:S10" si="4">(Q6-$P$12)^2</f>
+        <f t="shared" ref="S6:S10" si="5">(Q6-$P$12)^2</f>
         <v>904192.90510136005</v>
       </c>
       <c r="T6" s="12">
-        <f t="shared" ref="T6:T10" si="5">(Q6-P6)^2</f>
+        <f t="shared" ref="T6:T10" si="6">(Q6-P6)^2</f>
         <v>4563.982285414565</v>
       </c>
     </row>
-    <row r="7" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C7" s="1">
         <v>2700</v>
       </c>
@@ -3800,7 +3800,7 @@
         <v>0.8333333333333286</v>
       </c>
       <c r="G7" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.69444444444443654</v>
       </c>
       <c r="H7" s="12">
@@ -3815,7 +3815,7 @@
         <v>2450</v>
       </c>
       <c r="Q7" s="12">
-        <f>($G$17*D6)+$G$18</f>
+        <f t="shared" si="3"/>
         <v>2325.5725190839689</v>
       </c>
       <c r="R7" s="12">
@@ -3823,15 +3823,15 @@
         <v>217777.77777777764</v>
       </c>
       <c r="S7" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>349392.29130651586</v>
       </c>
       <c r="T7" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>15482.198007109277</v>
       </c>
     </row>
-    <row r="8" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C8" s="1">
         <v>3200</v>
       </c>
@@ -3847,7 +3847,7 @@
         <v>10.833333333333329</v>
       </c>
       <c r="G8" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>117.36111111111101</v>
       </c>
       <c r="H8" s="12">
@@ -3859,7 +3859,7 @@
         <v>2700</v>
       </c>
       <c r="Q8" s="12">
-        <f>($G$17*D7)+$G$18</f>
+        <f t="shared" si="3"/>
         <v>2942.3664122137402</v>
       </c>
       <c r="R8" s="12">
@@ -3867,15 +3867,15 @@
         <v>46944.44444444438</v>
       </c>
       <c r="S8" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>660.47692118433395</v>
       </c>
       <c r="T8" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>58741.477769360637</v>
       </c>
     </row>
-    <row r="9" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B9" s="3"/>
       <c r="C9" s="3">
         <v>3800</v>
@@ -3892,7 +3892,7 @@
         <v>20.833333333333329</v>
       </c>
       <c r="G9" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>434.0277777777776</v>
       </c>
       <c r="H9" s="13">
@@ -3904,7 +3904,7 @@
         <v>3200</v>
       </c>
       <c r="Q9" s="12">
-        <f>($G$17*D8)+$G$18</f>
+        <f t="shared" si="3"/>
         <v>3250.7633587786254</v>
       </c>
       <c r="R9" s="12">
@@ -3912,15 +3912,15 @@
         <v>80277.777777777868</v>
       </c>
       <c r="S9" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>111620.59968015304</v>
       </c>
       <c r="T9" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2576.9185944874434</v>
       </c>
     </row>
-    <row r="10" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B10" s="14" t="s">
         <v>48</v>
       </c>
@@ -3944,7 +3944,7 @@
         <v>3800</v>
       </c>
       <c r="Q10" s="13">
-        <f>($G$17*D9)+$G$18</f>
+        <f t="shared" si="3"/>
         <v>3559.160305343511</v>
       </c>
       <c r="R10" s="13">
@@ -3952,15 +3952,15 @@
         <v>780277.7777777781</v>
       </c>
       <c r="S10" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>412798.07574021164</v>
       </c>
       <c r="T10" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>58003.758522230841</v>
       </c>
     </row>
-    <row r="11" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B11" s="18" t="s">
         <v>49</v>
       </c>
@@ -3994,7 +3994,7 @@
         <v>139389.31297709935</v>
       </c>
     </row>
-    <row r="12" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B12" s="21"/>
       <c r="C12" s="22"/>
       <c r="D12" s="22"/>
@@ -4015,7 +4015,7 @@
       <c r="S12" s="19"/>
       <c r="T12" s="19"/>
     </row>
-    <row r="13" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B13" s="21"/>
       <c r="C13" s="22"/>
       <c r="D13" s="22"/>
@@ -4036,7 +4036,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
@@ -4065,7 +4065,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
@@ -4093,7 +4093,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="2:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:20" ht="15" x14ac:dyDescent="0.25">
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
       <c r="D16" s="24"/>
@@ -4116,7 +4116,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
@@ -4137,7 +4137,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:20" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
@@ -4175,7 +4175,7 @@
         <v>0.96305936935235881</v>
       </c>
     </row>
-    <row r="19" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
@@ -4184,7 +4184,7 @@
       </c>
       <c r="N19" s="31"/>
     </row>
-    <row r="20" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
@@ -4193,7 +4193,7 @@
       </c>
       <c r="O20" s="28"/>
     </row>
-    <row r="21" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
@@ -4201,7 +4201,7 @@
       <c r="F21" s="8"/>
       <c r="O21" s="31"/>
     </row>
-    <row r="22" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="8"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
@@ -4213,7 +4213,7 @@
       </c>
       <c r="O22" s="28"/>
     </row>
-    <row r="23" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -4224,7 +4224,7 @@
       <c r="H23" s="8"/>
       <c r="O23" s="28"/>
     </row>
-    <row r="24" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="8"/>
       <c r="B24" s="8"/>
       <c r="C24" s="7"/>
@@ -4239,7 +4239,7 @@
       <c r="L24" s="30"/>
       <c r="M24" s="30"/>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" s="8"/>
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
@@ -4250,7 +4250,7 @@
       <c r="H25" s="8"/>
       <c r="Q25"/>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
@@ -4260,7 +4260,7 @@
       <c r="G26" s="8"/>
       <c r="H26" s="8"/>
     </row>
-    <row r="27" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="8"/>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
@@ -4273,7 +4273,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" s="8"/>
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
@@ -4283,7 +4283,7 @@
       <c r="G28" s="8"/>
       <c r="H28" s="8"/>
     </row>
-    <row r="29" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="8"/>
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
@@ -4298,7 +4298,7 @@
       <c r="L29" s="30"/>
       <c r="M29" s="30"/>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="8"/>
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
@@ -4308,7 +4308,7 @@
       <c r="G30" s="8"/>
       <c r="H30" s="8"/>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B31" s="8"/>
       <c r="C31" s="9"/>
       <c r="D31" s="9"/>
@@ -4317,7 +4317,7 @@
       <c r="G31" s="8"/>
       <c r="H31" s="8"/>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
@@ -4325,7 +4325,7 @@
       <c r="G32" s="8"/>
       <c r="H32" s="8"/>
     </row>
-    <row r="33" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
       <c r="E33" s="7"/>
@@ -4333,7 +4333,7 @@
       <c r="G33" s="8"/>
       <c r="H33" s="8"/>
     </row>
-    <row r="34" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
       <c r="E34" s="7"/>
@@ -4341,7 +4341,7 @@
       <c r="G34" s="8"/>
       <c r="H34" s="8"/>
     </row>
-    <row r="35" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C35" s="8"/>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -4349,7 +4349,7 @@
       <c r="G35" s="8"/>
       <c r="H35" s="8"/>
     </row>
-    <row r="36" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C36" s="9"/>
       <c r="D36" s="9"/>
       <c r="E36" s="9"/>
@@ -4357,7 +4357,7 @@
       <c r="G36" s="9"/>
       <c r="H36" s="9"/>
     </row>
-    <row r="37" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
       <c r="E37" s="7"/>
@@ -4365,7 +4365,7 @@
       <c r="G37" s="7"/>
       <c r="H37" s="7"/>
     </row>
-    <row r="38" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
       <c r="E38" s="7"/>
@@ -4373,7 +4373,7 @@
       <c r="G38" s="7"/>
       <c r="H38" s="7"/>
     </row>
-    <row r="39" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C39" s="8"/>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -4381,7 +4381,7 @@
       <c r="G39" s="8"/>
       <c r="H39" s="8"/>
     </row>
-    <row r="40" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C40" s="8"/>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
